--- a/script_master_data/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
+++ b/script_master_data/ficherosExcelOrigen/DED-PDAU_Plantilla_Adopcion IA_v2a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53191E44-873A-4D7C-A9C4-C1C4B61B865B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657AA3D3-CCA0-4B9E-B88A-A27744CD7C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Reporte" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AdopcionIA!$B$5:$AR$178</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1969,33 +1969,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2010,6 +1983,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2028,6 +2010,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20445,10 +20445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:BR196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AN6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AS12" sqref="AS12"/>
@@ -25510,7 +25511,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9"/>
       <c r="C71" s="154"/>
       <c r="D71" s="10"/>
@@ -25555,7 +25556,7 @@
       <c r="AQ71" s="28"/>
       <c r="AR71" s="28"/>
     </row>
-    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9"/>
       <c r="C72" s="154"/>
       <c r="D72" s="10"/>
@@ -25600,7 +25601,7 @@
       <c r="AQ72" s="28"/>
       <c r="AR72" s="28"/>
     </row>
-    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="154"/>
       <c r="D73" s="10"/>
@@ -25645,7 +25646,7 @@
       <c r="AQ73" s="28"/>
       <c r="AR73" s="28"/>
     </row>
-    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="154"/>
       <c r="D74" s="10"/>
@@ -25690,7 +25691,7 @@
       <c r="AQ74" s="28"/>
       <c r="AR74" s="28"/>
     </row>
-    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="154"/>
       <c r="D75" s="10"/>
@@ -25735,7 +25736,7 @@
       <c r="AQ75" s="28"/>
       <c r="AR75" s="28"/>
     </row>
-    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9"/>
       <c r="C76" s="154"/>
       <c r="D76" s="10"/>
@@ -25774,7 +25775,7 @@
       <c r="AQ76" s="28"/>
       <c r="AR76" s="28"/>
     </row>
-    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77" s="9"/>
       <c r="C77" s="154"/>
       <c r="D77" s="10"/>
@@ -25819,7 +25820,7 @@
       <c r="AQ77" s="28"/>
       <c r="AR77" s="28"/>
     </row>
-    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="154"/>
       <c r="D78" s="10"/>
@@ -25864,7 +25865,7 @@
       <c r="AQ78" s="28"/>
       <c r="AR78" s="28"/>
     </row>
-    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9"/>
       <c r="C79" s="154"/>
       <c r="D79" s="10"/>
@@ -25909,7 +25910,7 @@
       <c r="AQ79" s="28"/>
       <c r="AR79" s="28"/>
     </row>
-    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="154"/>
       <c r="D80" s="10"/>
@@ -25954,7 +25955,7 @@
       <c r="AQ80" s="28"/>
       <c r="AR80" s="28"/>
     </row>
-    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="154"/>
       <c r="D81" s="10"/>
@@ -25999,7 +26000,7 @@
       <c r="AQ81" s="28"/>
       <c r="AR81" s="28"/>
     </row>
-    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="154"/>
       <c r="D82" s="10"/>
@@ -26044,7 +26045,7 @@
       <c r="AQ82" s="28"/>
       <c r="AR82" s="28"/>
     </row>
-    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9"/>
       <c r="C83" s="154"/>
       <c r="D83" s="10"/>
@@ -26089,7 +26090,7 @@
       <c r="AQ83" s="28"/>
       <c r="AR83" s="28"/>
     </row>
-    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="154"/>
       <c r="D84" s="10"/>
@@ -26134,7 +26135,7 @@
       <c r="AQ84" s="28"/>
       <c r="AR84" s="28"/>
     </row>
-    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="154"/>
       <c r="D85" s="10"/>
@@ -26179,7 +26180,7 @@
       <c r="AQ85" s="28"/>
       <c r="AR85" s="28"/>
     </row>
-    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="154"/>
       <c r="D86" s="10"/>
@@ -26224,7 +26225,7 @@
       <c r="AQ86" s="28"/>
       <c r="AR86" s="28"/>
     </row>
-    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="154"/>
       <c r="D87" s="10"/>
@@ -26269,7 +26270,7 @@
       <c r="AQ87" s="28"/>
       <c r="AR87" s="28"/>
     </row>
-    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
       <c r="C88" s="154"/>
       <c r="D88" s="10"/>
@@ -26314,7 +26315,7 @@
       <c r="AQ88" s="28"/>
       <c r="AR88" s="28"/>
     </row>
-    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89" s="9"/>
       <c r="C89" s="154"/>
       <c r="D89" s="10"/>
@@ -26359,7 +26360,7 @@
       <c r="AQ89" s="28"/>
       <c r="AR89" s="28"/>
     </row>
-    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="154"/>
       <c r="D90" s="10"/>
@@ -26404,7 +26405,7 @@
       <c r="AQ90" s="28"/>
       <c r="AR90" s="28"/>
     </row>
-    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
       <c r="C91" s="154"/>
       <c r="D91" s="10"/>
@@ -26449,7 +26450,7 @@
       <c r="AQ91" s="28"/>
       <c r="AR91" s="28"/>
     </row>
-    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9"/>
       <c r="C92" s="154"/>
       <c r="D92" s="10"/>
@@ -26494,7 +26495,7 @@
       <c r="AQ92" s="28"/>
       <c r="AR92" s="28"/>
     </row>
-    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="154"/>
       <c r="D93" s="10"/>
@@ -26539,7 +26540,7 @@
       <c r="AQ93" s="28"/>
       <c r="AR93" s="28"/>
     </row>
-    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="154"/>
       <c r="D94" s="10"/>
@@ -26584,7 +26585,7 @@
       <c r="AQ94" s="28"/>
       <c r="AR94" s="28"/>
     </row>
-    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="154"/>
       <c r="D95" s="10"/>
@@ -26629,7 +26630,7 @@
       <c r="AQ95" s="28"/>
       <c r="AR95" s="28"/>
     </row>
-    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:44" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="154"/>
       <c r="D96" s="10"/>
@@ -26674,7 +26675,7 @@
       <c r="AQ96" s="28"/>
       <c r="AR96" s="28"/>
     </row>
-    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="154"/>
       <c r="D97" s="10"/>
@@ -26719,7 +26720,7 @@
       <c r="AQ97" s="28"/>
       <c r="AR97" s="28"/>
     </row>
-    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98" s="9"/>
       <c r="C98" s="154"/>
       <c r="D98" s="10"/>
@@ -26764,7 +26765,7 @@
       <c r="AQ98" s="28"/>
       <c r="AR98" s="28"/>
     </row>
-    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99" s="9"/>
       <c r="C99" s="154"/>
       <c r="D99" s="10"/>
@@ -26809,7 +26810,7 @@
       <c r="AQ99" s="28"/>
       <c r="AR99" s="28"/>
     </row>
-    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100" s="9"/>
       <c r="C100" s="154"/>
       <c r="D100" s="10"/>
@@ -26854,7 +26855,7 @@
       <c r="AQ100" s="28"/>
       <c r="AR100" s="28"/>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="154"/>
       <c r="D101" s="10"/>
@@ -26899,7 +26900,7 @@
       <c r="AQ101" s="28"/>
       <c r="AR101" s="28"/>
     </row>
-    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="154"/>
       <c r="D102" s="10"/>
@@ -26944,7 +26945,7 @@
       <c r="AQ102" s="28"/>
       <c r="AR102" s="28"/>
     </row>
-    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9"/>
       <c r="C103" s="154"/>
       <c r="D103" s="10"/>
@@ -26989,7 +26990,7 @@
       <c r="AQ103" s="28"/>
       <c r="AR103" s="28"/>
     </row>
-    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="154"/>
       <c r="D104" s="10"/>
@@ -27034,7 +27035,7 @@
       <c r="AQ104" s="28"/>
       <c r="AR104" s="28"/>
     </row>
-    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="154"/>
       <c r="D105" s="10"/>
@@ -27079,7 +27080,7 @@
       <c r="AQ105" s="28"/>
       <c r="AR105" s="28"/>
     </row>
-    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="154"/>
       <c r="D106" s="10"/>
@@ -27124,7 +27125,7 @@
       <c r="AQ106" s="28"/>
       <c r="AR106" s="28"/>
     </row>
-    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="154"/>
       <c r="D107" s="10"/>
@@ -27169,7 +27170,7 @@
       <c r="AQ107" s="28"/>
       <c r="AR107" s="28"/>
     </row>
-    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:44" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="154"/>
       <c r="D108" s="10"/>
@@ -27214,7 +27215,7 @@
       <c r="AQ108" s="28"/>
       <c r="AR108" s="28"/>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="154"/>
       <c r="D109" s="10"/>
@@ -27259,7 +27260,7 @@
       <c r="AQ109" s="28"/>
       <c r="AR109" s="28"/>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="154"/>
       <c r="D110" s="10"/>
@@ -27304,7 +27305,7 @@
       <c r="AQ110" s="28"/>
       <c r="AR110" s="28"/>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="154"/>
       <c r="D111" s="10"/>
@@ -27349,7 +27350,7 @@
       <c r="AQ111" s="28"/>
       <c r="AR111" s="28"/>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:44" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="154"/>
       <c r="D112" s="10"/>
@@ -27394,7 +27395,7 @@
       <c r="AQ112" s="28"/>
       <c r="AR112" s="28"/>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="154"/>
       <c r="D113" s="10"/>
@@ -27439,7 +27440,7 @@
       <c r="AQ113" s="28"/>
       <c r="AR113" s="28"/>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="154"/>
       <c r="D114" s="10"/>
@@ -27484,7 +27485,7 @@
       <c r="AQ114" s="28"/>
       <c r="AR114" s="28"/>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="154"/>
       <c r="D115" s="10"/>
@@ -27529,7 +27530,7 @@
       <c r="AQ115" s="28"/>
       <c r="AR115" s="28"/>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="154"/>
       <c r="D116" s="10"/>
@@ -27574,7 +27575,7 @@
       <c r="AQ116" s="28"/>
       <c r="AR116" s="28"/>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="154"/>
       <c r="D117" s="10"/>
@@ -27619,7 +27620,7 @@
       <c r="AQ117" s="28"/>
       <c r="AR117" s="28"/>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="154"/>
       <c r="D118" s="10"/>
@@ -27664,7 +27665,7 @@
       <c r="AQ118" s="28"/>
       <c r="AR118" s="28"/>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="154"/>
       <c r="D119" s="10"/>
@@ -27709,7 +27710,7 @@
       <c r="AQ119" s="28"/>
       <c r="AR119" s="28"/>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="154"/>
       <c r="D120" s="10"/>
@@ -27754,7 +27755,7 @@
       <c r="AQ120" s="28"/>
       <c r="AR120" s="28"/>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:70" ht="42.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="9"/>
       <c r="C121" s="154"/>
       <c r="D121" s="10"/>
@@ -27799,7 +27800,7 @@
       <c r="AQ121" s="28"/>
       <c r="AR121" s="28"/>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="154"/>
       <c r="D122" s="10"/>
@@ -27844,7 +27845,7 @@
       <c r="AQ122" s="28"/>
       <c r="AR122" s="28"/>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="9"/>
       <c r="C123" s="154"/>
       <c r="D123" s="10"/>
@@ -27915,7 +27916,7 @@
       <c r="BQ123" s="103"/>
       <c r="BR123" s="103"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="154"/>
       <c r="D124" s="10"/>
@@ -27960,7 +27961,7 @@
       <c r="AQ124" s="28"/>
       <c r="AR124" s="28"/>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="154"/>
       <c r="D125" s="10"/>
@@ -28005,7 +28006,7 @@
       <c r="AQ125" s="28"/>
       <c r="AR125" s="28"/>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="154"/>
       <c r="D126" s="10"/>
@@ -28050,7 +28051,7 @@
       <c r="AQ126" s="28"/>
       <c r="AR126" s="28"/>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="154"/>
       <c r="D127" s="10"/>
@@ -28095,7 +28096,7 @@
       <c r="AQ127" s="28"/>
       <c r="AR127" s="28"/>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:70" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="154"/>
       <c r="D128" s="10"/>
@@ -28140,7 +28141,7 @@
       <c r="AQ128" s="28"/>
       <c r="AR128" s="28"/>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="154"/>
       <c r="D129" s="10"/>
@@ -28185,7 +28186,7 @@
       <c r="AQ129" s="28"/>
       <c r="AR129" s="28"/>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:44" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="9"/>
       <c r="C130" s="154"/>
       <c r="D130" s="10"/>
@@ -28230,7 +28231,7 @@
       <c r="AQ130" s="28"/>
       <c r="AR130" s="28"/>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="154"/>
       <c r="D131" s="10"/>
@@ -28275,7 +28276,7 @@
       <c r="AQ131" s="28"/>
       <c r="AR131" s="28"/>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="154"/>
       <c r="D132" s="10"/>
@@ -28320,7 +28321,7 @@
       <c r="AQ132" s="28"/>
       <c r="AR132" s="28"/>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="154"/>
       <c r="D133" s="10"/>
@@ -28365,7 +28366,7 @@
       <c r="AQ133" s="28"/>
       <c r="AR133" s="28"/>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="154"/>
       <c r="D134" s="10"/>
@@ -28410,7 +28411,7 @@
       <c r="AQ134" s="28"/>
       <c r="AR134" s="28"/>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="154"/>
       <c r="D135" s="10"/>
@@ -28455,7 +28456,7 @@
       <c r="AQ135" s="28"/>
       <c r="AR135" s="28"/>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="154"/>
       <c r="D136" s="10"/>
@@ -28500,7 +28501,7 @@
       <c r="AQ136" s="28"/>
       <c r="AR136" s="28"/>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="154"/>
       <c r="D137" s="10"/>
@@ -28545,7 +28546,7 @@
       <c r="AQ137" s="28"/>
       <c r="AR137" s="28"/>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="154"/>
       <c r="D138" s="10"/>
@@ -28590,7 +28591,7 @@
       <c r="AQ138" s="28"/>
       <c r="AR138" s="28"/>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="154"/>
       <c r="D139" s="10"/>
@@ -28635,7 +28636,7 @@
       <c r="AQ139" s="28"/>
       <c r="AR139" s="28"/>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="154"/>
       <c r="D140" s="10"/>
@@ -28680,7 +28681,7 @@
       <c r="AQ140" s="28"/>
       <c r="AR140" s="28"/>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="154"/>
       <c r="D141" s="10"/>
@@ -28725,7 +28726,7 @@
       <c r="AQ141" s="28"/>
       <c r="AR141" s="28"/>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="154"/>
       <c r="D142" s="10"/>
@@ -28770,7 +28771,7 @@
       <c r="AQ142" s="28"/>
       <c r="AR142" s="28"/>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:44" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="154"/>
       <c r="D143" s="10"/>
@@ -28815,7 +28816,7 @@
       <c r="AQ143" s="28"/>
       <c r="AR143" s="28"/>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="154"/>
       <c r="D144" s="10"/>
@@ -28860,7 +28861,7 @@
       <c r="AQ144" s="28"/>
       <c r="AR144" s="28"/>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="154"/>
       <c r="D145" s="10"/>
@@ -28905,7 +28906,7 @@
       <c r="AQ145" s="28"/>
       <c r="AR145" s="28"/>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:44" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="154"/>
       <c r="D146" s="10"/>
@@ -28950,7 +28951,7 @@
       <c r="AQ146" s="28"/>
       <c r="AR146" s="28"/>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:44" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="154"/>
       <c r="D147" s="10"/>
@@ -28995,7 +28996,7 @@
       <c r="AQ147" s="28"/>
       <c r="AR147" s="28"/>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="154"/>
       <c r="D148" s="10"/>
@@ -29040,7 +29041,7 @@
       <c r="AQ148" s="28"/>
       <c r="AR148" s="28"/>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="154"/>
       <c r="D149" s="10"/>
@@ -29085,7 +29086,7 @@
       <c r="AQ149" s="28"/>
       <c r="AR149" s="28"/>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="154"/>
       <c r="D150" s="10"/>
@@ -29130,7 +29131,7 @@
       <c r="AQ150" s="28"/>
       <c r="AR150" s="28"/>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="154"/>
       <c r="D151" s="10"/>
@@ -29175,7 +29176,7 @@
       <c r="AQ151" s="28"/>
       <c r="AR151" s="28"/>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="9"/>
       <c r="C152" s="154"/>
       <c r="D152" s="10"/>
@@ -29220,7 +29221,7 @@
       <c r="AQ152" s="28"/>
       <c r="AR152" s="28"/>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="154"/>
       <c r="D153" s="10"/>
@@ -29265,7 +29266,7 @@
       <c r="AQ153" s="28"/>
       <c r="AR153" s="28"/>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="154"/>
       <c r="D154" s="10"/>
@@ -29310,7 +29311,7 @@
       <c r="AQ154" s="28"/>
       <c r="AR154" s="28"/>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="154"/>
       <c r="D155" s="10"/>
@@ -29355,7 +29356,7 @@
       <c r="AQ155" s="28"/>
       <c r="AR155" s="28"/>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="154"/>
       <c r="D156" s="10"/>
@@ -29400,7 +29401,7 @@
       <c r="AQ156" s="28"/>
       <c r="AR156" s="28"/>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="154"/>
       <c r="D157" s="10"/>
@@ -29445,7 +29446,7 @@
       <c r="AQ157" s="28"/>
       <c r="AR157" s="28"/>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="154"/>
       <c r="D158" s="10"/>
@@ -29490,7 +29491,7 @@
       <c r="AQ158" s="28"/>
       <c r="AR158" s="28"/>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="154"/>
       <c r="D159" s="10"/>
@@ -29535,7 +29536,7 @@
       <c r="AQ159" s="28"/>
       <c r="AR159" s="28"/>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="154"/>
       <c r="D160" s="10"/>
@@ -29580,7 +29581,7 @@
       <c r="AQ160" s="28"/>
       <c r="AR160" s="28"/>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="154"/>
       <c r="D161" s="10"/>
@@ -29625,7 +29626,7 @@
       <c r="AQ161" s="28"/>
       <c r="AR161" s="28"/>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="154"/>
       <c r="D162" s="10"/>
@@ -29670,7 +29671,7 @@
       <c r="AQ162" s="28"/>
       <c r="AR162" s="28"/>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="154"/>
       <c r="D163" s="10"/>
@@ -29715,7 +29716,7 @@
       <c r="AQ163" s="28"/>
       <c r="AR163" s="28"/>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="154"/>
       <c r="D164" s="10"/>
@@ -29760,7 +29761,7 @@
       <c r="AQ164" s="28"/>
       <c r="AR164" s="28"/>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="154"/>
       <c r="D165" s="10"/>
@@ -29805,7 +29806,7 @@
       <c r="AQ165" s="28"/>
       <c r="AR165" s="28"/>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="154"/>
       <c r="D166" s="10"/>
@@ -29850,7 +29851,7 @@
       <c r="AQ166" s="28"/>
       <c r="AR166" s="28"/>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="154"/>
       <c r="D167" s="10"/>
@@ -29895,7 +29896,7 @@
       <c r="AQ167" s="28"/>
       <c r="AR167" s="28"/>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="154"/>
       <c r="D168" s="10"/>
@@ -29940,7 +29941,7 @@
       <c r="AQ168" s="28"/>
       <c r="AR168" s="28"/>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="154"/>
       <c r="D169" s="10"/>
@@ -29985,7 +29986,7 @@
       <c r="AQ169" s="28"/>
       <c r="AR169" s="28"/>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="154"/>
       <c r="D170" s="10"/>
@@ -30030,7 +30031,7 @@
       <c r="AQ170" s="28"/>
       <c r="AR170" s="28"/>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="154"/>
       <c r="D171" s="10"/>
@@ -30075,7 +30076,7 @@
       <c r="AQ171" s="28"/>
       <c r="AR171" s="28"/>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="154"/>
       <c r="D172" s="10"/>
@@ -30120,7 +30121,7 @@
       <c r="AQ172" s="28"/>
       <c r="AR172" s="28"/>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="154"/>
       <c r="D173" s="10"/>
@@ -30165,7 +30166,7 @@
       <c r="AQ173" s="28"/>
       <c r="AR173" s="28"/>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="9"/>
       <c r="C174" s="154"/>
       <c r="D174" s="10"/>
@@ -30210,7 +30211,7 @@
       <c r="AQ174" s="28"/>
       <c r="AR174" s="28"/>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="154"/>
       <c r="D175" s="10"/>
@@ -30255,7 +30256,7 @@
       <c r="AQ175" s="28"/>
       <c r="AR175" s="28"/>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="154"/>
       <c r="D176" s="10"/>
@@ -30300,7 +30301,7 @@
       <c r="AQ176" s="28"/>
       <c r="AR176" s="28"/>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="154"/>
       <c r="D177" s="10"/>
@@ -30345,7 +30346,7 @@
       <c r="AQ177" s="28"/>
       <c r="AR177" s="28"/>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:44" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="154"/>
       <c r="D178" s="10"/>
@@ -30463,7 +30464,13 @@
       <c r="AR196" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B5:AR178" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="L3:P3"/>
   </mergeCells>
@@ -30670,17 +30677,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
     </row>
     <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="J5" s="169" t="s">
+      <c r="J5" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="170"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="3:12" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="30" t="s">
@@ -30715,152 +30722,152 @@
       </c>
     </row>
     <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="162" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="173" t="s">
+      <c r="D7" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="164" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="164"/>
+      <c r="H7" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="164"/>
+      <c r="L7" s="164"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" s="172"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
     </row>
     <row r="9" spans="3:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="172"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C10" s="172"/>
-      <c r="D10" s="165" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165" t="s">
+      <c r="G10" s="164"/>
+      <c r="H10" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="78"/>
       <c r="L10" s="19"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C11" s="172"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
       <c r="K11" s="78"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C12" s="172"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C13" s="172"/>
-      <c r="D13" s="176" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="165" t="s">
+      <c r="G13" s="176"/>
+      <c r="H13" s="164" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C14" s="172"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C15" s="172"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C16" s="172"/>
-      <c r="D16" s="162" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="159" t="s">
+      <c r="G16" s="176"/>
+      <c r="H16" s="173" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="19"/>
@@ -30869,19 +30876,19 @@
       <c r="L16" s="19"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="172"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="161"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="172"/>
+      <c r="C18" s="163"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -30893,7 +30900,7 @@
       <c r="L18" s="19"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="172"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -30906,6 +30913,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="C7:C19"/>
@@ -30922,21 +30944,6 @@
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J13:J15"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36166,6 +36173,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
@@ -36177,15 +36193,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36208,6 +36215,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -36217,14 +36232,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{586dd8ec-1577-4ac3-bcff-9b1b1c87cbbc}" enabled="1" method="Standard" siteId="{a22f907a-53a6-449f-b082-22c03676d7fb}" contentBits="0" removed="0"/>
